--- a/ExU/Documentation/FP1-log-G54-0624-350-1201.xlsx
+++ b/ExU/Documentation/FP1-log-G54-0624-350-1201.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rico\Desktop\SFU UNI FOLDER\2020 Spring\ENSC 350\FP1.1-350-1201\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rico\Desktop\ENSC 350 Part1\ENSC350FP\ExU\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF44F5B-D2E6-46EC-8190-B0179FBEC573}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D582A46-7FCE-4B9D-8401-68B2C8817631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
+    <workbookView xWindow="5790" yWindow="2610" windowWidth="21600" windowHeight="11385" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity Log" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>Creating file structure for Final Project</t>
+  </si>
+  <si>
+    <t>10:15pm</t>
+  </si>
+  <si>
+    <t>10:19pm</t>
   </si>
 </sst>
 </file>
@@ -668,7 +674,7 @@
   <dimension ref="A1:G756"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -740,15 +746,23 @@
       <c r="D6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="G6" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B7" s="12"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="19"/>
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="E7" s="22"/>
       <c r="G7" s="13"/>
     </row>

--- a/ExU/Documentation/FP1-log-G54-0624-350-1201.xlsx
+++ b/ExU/Documentation/FP1-log-G54-0624-350-1201.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rico\Desktop\ENSC 350 Part1\ENSC350FP\ExU\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D582A46-7FCE-4B9D-8401-68B2C8817631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBEB2B6-2E71-4C6C-924E-3CFB2BEA9B9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="2610" windowWidth="21600" windowHeight="11385" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
+    <workbookView xWindow="5730" yWindow="3495" windowWidth="21600" windowHeight="11385" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity Log" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>10:19pm</t>
+  </si>
+  <si>
+    <t>10:52pm</t>
+  </si>
+  <si>
+    <t>Helped my teammates set up Git and helped them with setting up of Quartus and ModelSim</t>
   </si>
 </sst>
 </file>
@@ -763,8 +769,12 @@
       <c r="D7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="G7" s="13"/>
+      <c r="E7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
       <c r="B8" s="12"/>

--- a/ExU/Documentation/FP1-log-G54-0624-350-1201.xlsx
+++ b/ExU/Documentation/FP1-log-G54-0624-350-1201.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rico\Desktop\ENSC 350 Part1\ENSC350FP\ExU\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBEB2B6-2E71-4C6C-924E-3CFB2BEA9B9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8F3F35-1E97-4C6B-A88E-719C50CF19BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5730" yWindow="3495" windowWidth="21600" windowHeight="11385" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>Helped my teammates set up Git and helped them with setting up of Quartus and ModelSim</t>
+  </si>
+  <si>
+    <t>30/03/2020</t>
+  </si>
+  <si>
+    <t>Splitting tasks between team members and starting to look into different Logic Unit</t>
   </si>
 </sst>
 </file>
@@ -680,7 +686,7 @@
   <dimension ref="A1:G756"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -777,11 +783,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B8" s="12"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="19"/>
+      <c r="B8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>11</v>
+      </c>
       <c r="E8" s="22"/>
-      <c r="G8" s="13"/>
+      <c r="G8" s="13" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
       <c r="B9" s="12"/>

--- a/ExU/Documentation/FP1-log-G54-0624-350-1201.xlsx
+++ b/ExU/Documentation/FP1-log-G54-0624-350-1201.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rico\Desktop\ENSC 350 Part1\ENSC350FP\ExU\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8F3F35-1E97-4C6B-A88E-719C50CF19BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75F5C0F-353E-48D8-9949-B334619D8953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5730" yWindow="3495" windowWidth="21600" windowHeight="11385" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -98,7 +98,16 @@
     <t>30/03/2020</t>
   </si>
   <si>
-    <t>Splitting tasks between team members and starting to look into different Logic Unit</t>
+    <t>11:00pm</t>
+  </si>
+  <si>
+    <t>Splitting tasks between team members and starting to look into Logic Unit</t>
+  </si>
+  <si>
+    <t>10:30pm</t>
+  </si>
+  <si>
+    <t>Finished the Logic Unit</t>
   </si>
 </sst>
 </file>
@@ -686,7 +695,7 @@
   <dimension ref="A1:G756"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -792,17 +801,29 @@
       <c r="D8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="G8" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
+      <c r="B9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B9" s="12"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="22"/>
-      <c r="G9" s="13"/>
+      <c r="G9" s="13" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
       <c r="B10" s="12"/>

--- a/ExU/Documentation/FP1-log-G54-0624-350-1201.xlsx
+++ b/ExU/Documentation/FP1-log-G54-0624-350-1201.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rico\Desktop\ENSC 350 Part1\ENSC350FP\ExU\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75F5C0F-353E-48D8-9949-B334619D8953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1145A5-ED19-4331-8E0B-E3D4EF490E06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5730" yWindow="3495" windowWidth="21600" windowHeight="11385" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t>Finished the Logic Unit</t>
+  </si>
+  <si>
+    <t>31/03/2020</t>
+  </si>
+  <si>
+    <t>7:59pm</t>
+  </si>
+  <si>
+    <t>Working on Arithmetic Unit</t>
   </si>
 </sst>
 </file>
@@ -695,7 +704,7 @@
   <dimension ref="A1:G756"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -826,11 +835,19 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B10" s="12"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="19"/>
+      <c r="B10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="E10" s="22"/>
-      <c r="G10" s="13"/>
+      <c r="G10" s="13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
       <c r="B11" s="12"/>

--- a/ExU/Documentation/FP1-log-G54-0624-350-1201.xlsx
+++ b/ExU/Documentation/FP1-log-G54-0624-350-1201.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rico\Desktop\ENSC 350 Part1\ENSC350FP\ExU\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1145A5-ED19-4331-8E0B-E3D4EF490E06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F230133F-F2A6-4766-ADC8-E4071AE932DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5730" yWindow="3495" windowWidth="21600" windowHeight="11385" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Working on Arithmetic Unit</t>
+  </si>
+  <si>
+    <t>10:25pm</t>
   </si>
 </sst>
 </file>
@@ -704,7 +707,7 @@
   <dimension ref="A1:G756"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -844,7 +847,9 @@
       <c r="D10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="G10" s="13" t="s">
         <v>24</v>
       </c>

--- a/ExU/Documentation/FP1-log-G54-0624-350-1201.xlsx
+++ b/ExU/Documentation/FP1-log-G54-0624-350-1201.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rico\Desktop\ENSC 350 Part1\ENSC350FP\ExU\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F230133F-F2A6-4766-ADC8-E4071AE932DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BC4DAA-52D8-430E-87C1-B3686ADEF6E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5730" yWindow="3495" windowWidth="21600" windowHeight="11385" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -74,9 +74,6 @@
     <t>"0624"</t>
   </si>
   <si>
-    <t>29/03/2020</t>
-  </si>
-  <si>
     <t>9:00pm</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>Helped my teammates set up Git and helped them with setting up of Quartus and ModelSim</t>
   </si>
   <si>
-    <t>30/03/2020</t>
-  </si>
-  <si>
     <t>11:00pm</t>
   </si>
   <si>
@@ -110,9 +104,6 @@
     <t>Finished the Logic Unit</t>
   </si>
   <si>
-    <t>31/03/2020</t>
-  </si>
-  <si>
     <t>7:59pm</t>
   </si>
   <si>
@@ -120,6 +111,24 @@
   </si>
   <si>
     <t>10:25pm</t>
+  </si>
+  <si>
+    <t>12:20pm</t>
+  </si>
+  <si>
+    <t>1:15pm</t>
+  </si>
+  <si>
+    <t>Working on Arithmetic Unit, trying to fix problems</t>
+  </si>
+  <si>
+    <t>1:30pm</t>
+  </si>
+  <si>
+    <t>4:17pm</t>
+  </si>
+  <si>
+    <t>Finished Arithmetic Unit and Logic Unit</t>
   </si>
 </sst>
 </file>
@@ -707,7 +716,7 @@
   <dimension ref="A1:G756"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -773,100 +782,120 @@
       <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="9">
+        <v>43919</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
       <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>10</v>
+      <c r="C7" s="10">
+        <v>43919</v>
       </c>
       <c r="D7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="G7" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="10">
+        <v>43920</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>17</v>
+      <c r="C9" s="10">
+        <v>43920</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
       <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="10">
+        <v>43921</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="G10" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
+      <c r="B11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10">
+        <v>43922</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B11" s="12"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="22"/>
-      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1">
-      <c r="B12" s="12"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="22"/>
-      <c r="G12" s="13"/>
+      <c r="B12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10">
+        <v>43922</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="24.95" customHeight="1">
       <c r="B13" s="13"/>

--- a/ExU/Documentation/FP1-log-G54-0624-350-1201.xlsx
+++ b/ExU/Documentation/FP1-log-G54-0624-350-1201.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rico\Desktop\ENSC 350 Part1\ENSC350FP\ExU\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BC4DAA-52D8-430E-87C1-B3686ADEF6E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B770339-8EDC-4FF9-88A3-F6888B165FAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5730" yWindow="3495" windowWidth="21600" windowHeight="11385" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>Finished Arithmetic Unit and Logic Unit</t>
+  </si>
+  <si>
+    <t>7:53pm</t>
+  </si>
+  <si>
+    <t>10:59pm</t>
+  </si>
+  <si>
+    <t>Worked on synthesis and documentation, will continue with screenshotting circuits tomorrow</t>
   </si>
 </sst>
 </file>
@@ -716,7 +725,7 @@
   <dimension ref="A1:G756"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -898,11 +907,21 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="24.95" customHeight="1">
-      <c r="B13" s="13"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="22"/>
-      <c r="G13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="10">
+        <v>43923</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="24.95" customHeight="1">
       <c r="B14" s="13"/>

--- a/ExU/Documentation/FP1-log-G54-0624-350-1201.xlsx
+++ b/ExU/Documentation/FP1-log-G54-0624-350-1201.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rico\Desktop\ENSC 350 Part1\ENSC350FP\ExU\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B770339-8EDC-4FF9-88A3-F6888B165FAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F56E777-70AF-4B9D-B66B-8B48AA8317D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5730" yWindow="3495" windowWidth="21600" windowHeight="11385" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>Worked on synthesis and documentation, will continue with screenshotting circuits tomorrow</t>
+  </si>
+  <si>
+    <t>5:05pm</t>
+  </si>
+  <si>
+    <t>6:12pm</t>
+  </si>
+  <si>
+    <t>Continued with documentation and finished getting circuit screenshots, will try to finish up doucmentation tomorrow</t>
   </si>
 </sst>
 </file>
@@ -724,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD00F48-C874-4451-94D3-83F5136CE4E1}">
   <dimension ref="A1:G756"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -924,11 +933,21 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="24.95" customHeight="1">
-      <c r="B14" s="13"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="22"/>
-      <c r="G14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="10">
+        <v>43924</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="24.95" customHeight="1">
       <c r="B15" s="13"/>

--- a/ExU/Documentation/FP1-log-G54-0624-350-1201.xlsx
+++ b/ExU/Documentation/FP1-log-G54-0624-350-1201.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rico\Desktop\ENSC 350 Part1\ENSC350FP\ExU\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F56E777-70AF-4B9D-B66B-8B48AA8317D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B446798-1E36-4F9A-AB72-253EE427B223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5730" yWindow="3495" windowWidth="21600" windowHeight="11385" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>Continued with documentation and finished getting circuit screenshots, will try to finish up doucmentation tomorrow</t>
+  </si>
+  <si>
+    <t>7:25pm</t>
+  </si>
+  <si>
+    <t>7:41pm</t>
+  </si>
+  <si>
+    <t>Proofread the document once and made some changes, will submit tomorrow</t>
   </si>
 </sst>
 </file>
@@ -733,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD00F48-C874-4451-94D3-83F5136CE4E1}">
   <dimension ref="A1:G756"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -950,11 +959,21 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="24.95" customHeight="1">
-      <c r="B15" s="13"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="22"/>
-      <c r="G15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="10">
+        <v>43925</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="24.95" customHeight="1">
       <c r="B16" s="13"/>

--- a/ExU/Documentation/FP1-log-G54-0624-350-1201.xlsx
+++ b/ExU/Documentation/FP1-log-G54-0624-350-1201.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rico\Desktop\ENSC 350 Part1\ENSC350FP\ExU\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B446798-1E36-4F9A-AB72-253EE427B223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C6762C-36D6-47A1-95BA-96D79CD9651D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5730" yWindow="3495" windowWidth="21600" windowHeight="11385" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -101,15 +101,9 @@
     <t>10:30pm</t>
   </si>
   <si>
-    <t>Finished the Logic Unit</t>
-  </si>
-  <si>
     <t>7:59pm</t>
   </si>
   <si>
-    <t>Working on Arithmetic Unit</t>
-  </si>
-  <si>
     <t>10:25pm</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
     <t>1:15pm</t>
   </si>
   <si>
-    <t>Working on Arithmetic Unit, trying to fix problems</t>
-  </si>
-  <si>
     <t>1:30pm</t>
   </si>
   <si>
@@ -137,9 +128,6 @@
     <t>10:59pm</t>
   </si>
   <si>
-    <t>Worked on synthesis and documentation, will continue with screenshotting circuits tomorrow</t>
-  </si>
-  <si>
     <t>5:05pm</t>
   </si>
   <si>
@@ -156,6 +144,30 @@
   </si>
   <si>
     <t>Proofread the document once and made some changes, will submit tomorrow</t>
+  </si>
+  <si>
+    <t>Working on Logic Unit - logical operation implementations</t>
+  </si>
+  <si>
+    <t>Finished Logic Unit</t>
+  </si>
+  <si>
+    <t>11:15pm</t>
+  </si>
+  <si>
+    <t>Working on Arithmetic Unit - Zero, AltB, AltBu, ExtWord MUX implementations</t>
+  </si>
+  <si>
+    <t>Working on fixing Arithmetic Unit bugs since functional simulation test cases did not fully pass</t>
+  </si>
+  <si>
+    <t>Worked on synthesis and documentation, will continue with post-fit and RTL screenshots tomorrow</t>
+  </si>
+  <si>
+    <t>2:50pm</t>
+  </si>
+  <si>
+    <t>Improving log entries and making sure all team members' log entries are clear, concise, and matches the requirements</t>
   </si>
 </sst>
 </file>
@@ -740,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD00F48-C874-4451-94D3-83F5136CE4E1}">
-  <dimension ref="A1:G756"/>
+  <dimension ref="A1:G757"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -870,7 +882,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
@@ -878,16 +890,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="10">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
@@ -895,19 +907,19 @@
         <v>9</v>
       </c>
       <c r="C11" s="10">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="24.95" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
       <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
@@ -915,30 +927,30 @@
         <v>43922</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="24.95" customHeight="1">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="10">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="24.95" customHeight="1">
@@ -946,16 +958,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="10">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="24.95" customHeight="1">
@@ -963,31 +975,49 @@
         <v>9</v>
       </c>
       <c r="C15" s="10">
+        <v>43924</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="24.95" customHeight="1">
+      <c r="B16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="10">
         <v>43925</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="24.95" customHeight="1">
-      <c r="B16" s="13"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="22"/>
-      <c r="G16" s="13"/>
+      <c r="D16" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="24.95" customHeight="1">
-      <c r="B17" s="13"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="10">
+        <v>43926</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="E17" s="22"/>
-      <c r="G17" s="13"/>
+      <c r="G17" s="13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="18" spans="2:7" ht="24.95" customHeight="1">
       <c r="B18" s="13"/>
@@ -1227,14 +1257,20 @@
       <c r="E51" s="22"/>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" spans="2:7" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B52" s="14"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="23"/>
-      <c r="G52" s="14"/>
-    </row>
-    <row r="53" spans="2:7" ht="24.95" customHeight="1"/>
+    <row r="52" spans="2:7" ht="24.95" customHeight="1">
+      <c r="B52" s="13"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="22"/>
+      <c r="G52" s="13"/>
+    </row>
+    <row r="53" spans="2:7" ht="24.95" customHeight="1" thickBot="1">
+      <c r="B53" s="14"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="23"/>
+      <c r="G53" s="14"/>
+    </row>
     <row r="54" spans="2:7" ht="24.95" customHeight="1"/>
     <row r="55" spans="2:7" ht="24.95" customHeight="1"/>
     <row r="56" spans="2:7" ht="24.95" customHeight="1"/>
@@ -1938,6 +1974,7 @@
     <row r="754" ht="24.95" customHeight="1"/>
     <row r="755" ht="24.95" customHeight="1"/>
     <row r="756" ht="24.95" customHeight="1"/>
+    <row r="757" ht="24.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:D1"/>

--- a/ExU/Documentation/FP1-log-G54-0624-350-1201.xlsx
+++ b/ExU/Documentation/FP1-log-G54-0624-350-1201.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rico\Desktop\ENSC 350 Part1\ENSC350FP\ExU\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB60572-7500-46C0-83B9-37B60B5091AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298AF814-0F72-4139-A5BA-423E40CCE713}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5730" yWindow="3495" windowWidth="21600" windowHeight="11385" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -186,6 +186,15 @@
   </si>
   <si>
     <t>5:45pm</t>
+  </si>
+  <si>
+    <t>10:34pm</t>
+  </si>
+  <si>
+    <t>9:45pm</t>
+  </si>
+  <si>
+    <t>Did some small changes to the source code and re-took some screenshots</t>
   </si>
 </sst>
 </file>
@@ -773,7 +782,7 @@
   <dimension ref="A1:G757"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1074,11 +1083,21 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="24.95" customHeight="1">
-      <c r="B20" s="13"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="22"/>
-      <c r="G20" s="13"/>
+      <c r="B20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="10">
+        <v>43926</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="21" spans="2:7" ht="24.95" customHeight="1">
       <c r="B21" s="13"/>
